--- a/Week6/Assignment/180212_Week6_AA/src/test/resources/AAData.xlsx
+++ b/Week6/Assignment/180212_Week6_AA/src/test/resources/AAData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>username</t>
   </si>
@@ -130,13 +130,157 @@
   </si>
   <si>
     <t>totallPass</t>
+  </si>
+  <si>
+    <t>firstName1</t>
+  </si>
+  <si>
+    <t>lastName1</t>
+  </si>
+  <si>
+    <t>firstname2</t>
+  </si>
+  <si>
+    <t>firstName3</t>
+  </si>
+  <si>
+    <t>lastName3</t>
+  </si>
+  <si>
+    <t>firstName4</t>
+  </si>
+  <si>
+    <t>lastName4</t>
+  </si>
+  <si>
+    <t>lastName2</t>
+  </si>
+  <si>
+    <t>ryan</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>ryanbon</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>cardMonth</t>
+  </si>
+  <si>
+    <t>cardYear</t>
+  </si>
+  <si>
+    <t>cardFirstName</t>
+  </si>
+  <si>
+    <t>cardMiddleName</t>
+  </si>
+  <si>
+    <t>cardLastName</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>dobgert</t>
+  </si>
+  <si>
+    <t>brb</t>
+  </si>
+  <si>
+    <t>bilAddress</t>
+  </si>
+  <si>
+    <t>bilCity</t>
+  </si>
+  <si>
+    <t>bilState</t>
+  </si>
+  <si>
+    <t>bilZip</t>
+  </si>
+  <si>
+    <t>bilCountry</t>
+  </si>
+  <si>
+    <t>101-09 bob street</t>
+  </si>
+  <si>
+    <t>103-11 ryan street</t>
+  </si>
+  <si>
+    <t>102-12 werid street</t>
+  </si>
+  <si>
+    <t>101-10 dog street</t>
+  </si>
+  <si>
+    <t>bob City</t>
+  </si>
+  <si>
+    <t>dog City</t>
+  </si>
+  <si>
+    <t>werid City</t>
+  </si>
+  <si>
+    <t>ryan City</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>delAddress</t>
+  </si>
+  <si>
+    <t>delCity</t>
+  </si>
+  <si>
+    <t>delState</t>
+  </si>
+  <si>
+    <t>delZip</t>
+  </si>
+  <si>
+    <t>delCountry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,6 +289,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,9 +322,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,18 +608,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" customWidth="1"/>
+    <col min="25" max="25" width="35.5703125" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="40" max="40" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +671,83 @@
       <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,8 +793,83 @@
       <c r="O2">
         <v>1</v>
       </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>2004</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2">
+        <v>11111</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2">
+        <v>11111</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,8 +915,83 @@
       <c r="O3">
         <v>2</v>
       </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>2005</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3">
+        <v>11112</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3">
+        <v>11112</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,8 +1037,83 @@
       <c r="O4">
         <v>3</v>
       </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>2006</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4">
+        <v>11113</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4">
+        <v>11113</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,9 +1158,85 @@
       </c>
       <c r="O5">
         <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>2007</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH5">
+        <v>11114</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5">
+        <v>11114</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>